--- a/workout_plan_new.xlsx
+++ b/workout_plan_new.xlsx
@@ -46,38 +46,38 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0052A7C5"/>
-        <bgColor rgb="0052A7C5"/>
+        <fgColor rgb="005262C5"/>
+        <bgColor rgb="005262C5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0065B0CC"/>
-        <bgColor rgb="0065B0CC"/>
+        <fgColor rgb="006573CC"/>
+        <bgColor rgb="006573CC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0079BAD2"/>
-        <bgColor rgb="0079BAD2"/>
+        <fgColor rgb="007985D2"/>
+        <bgColor rgb="007985D2"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="008CC4D8"/>
-        <bgColor rgb="008CC4D8"/>
+        <fgColor rgb="008C96D8"/>
+        <bgColor rgb="008C96D8"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="009FCEDF"/>
-        <bgColor rgb="009FCEDF"/>
+        <fgColor rgb="009FA7DF"/>
+        <bgColor rgb="009FA7DF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00B2D7E5"/>
-        <bgColor rgb="00B2D7E5"/>
+        <fgColor rgb="00B2B9E5"/>
+        <bgColor rgb="00B2B9E5"/>
       </patternFill>
     </fill>
   </fills>
@@ -1013,27 +1013,27 @@
     <col width="13" customWidth="1" min="63" max="63"/>
     <col width="31.5" customWidth="1" min="65" max="65"/>
     <col width="13" customWidth="1" min="68" max="68"/>
-    <col width="23.8" customWidth="1" min="70" max="70"/>
+    <col width="25.9" customWidth="1" min="70" max="70"/>
     <col width="13" customWidth="1" min="73" max="73"/>
-    <col width="23.8" customWidth="1" min="75" max="75"/>
+    <col width="25.9" customWidth="1" min="75" max="75"/>
     <col width="13" customWidth="1" min="78" max="78"/>
     <col width="24.5" customWidth="1" min="80" max="80"/>
     <col width="13" customWidth="1" min="83" max="83"/>
     <col width="24.5" customWidth="1" min="85" max="85"/>
     <col width="13" customWidth="1" min="97" max="97"/>
-    <col width="32.9" customWidth="1" min="99" max="99"/>
+    <col width="42.7" customWidth="1" min="99" max="99"/>
     <col width="13" customWidth="1" min="102" max="102"/>
-    <col width="32.9" customWidth="1" min="104" max="104"/>
+    <col width="42.7" customWidth="1" min="104" max="104"/>
     <col width="13" customWidth="1" min="107" max="107"/>
-    <col width="32.9" customWidth="1" min="109" max="109"/>
+    <col width="42.7" customWidth="1" min="109" max="109"/>
     <col width="13" customWidth="1" min="112" max="112"/>
-    <col width="10.5" customWidth="1" min="114" max="114"/>
+    <col width="37.09999999999999" customWidth="1" min="114" max="114"/>
     <col width="13" customWidth="1" min="117" max="117"/>
-    <col width="10.5" customWidth="1" min="119" max="119"/>
+    <col width="37.09999999999999" customWidth="1" min="119" max="119"/>
     <col width="13" customWidth="1" min="122" max="122"/>
-    <col width="12.6" customWidth="1" min="124" max="124"/>
+    <col width="41.3" customWidth="1" min="124" max="124"/>
     <col width="13" customWidth="1" min="127" max="127"/>
-    <col width="12.6" customWidth="1" min="129" max="129"/>
+    <col width="41.3" customWidth="1" min="129" max="129"/>
   </cols>
   <sheetData>
     <row r="1"/>
@@ -3679,15 +3679,15 @@
       </c>
       <c r="CS18" s="14" t="inlineStr">
         <is>
-          <t>120kg</t>
+          <t>122.5kg</t>
         </is>
       </c>
       <c r="CT18" s="15" t="n">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="CU18" s="16" t="inlineStr">
         <is>
-          <t>Continue progression while keeping form strict.</t>
+          <t>Standard – increase load for continued progression.</t>
         </is>
       </c>
       <c r="CV18" s="8" t="n"/>
@@ -3696,15 +3696,15 @@
       </c>
       <c r="CX18" s="14" t="inlineStr">
         <is>
-          <t>120kg</t>
+          <t>122.5kg</t>
         </is>
       </c>
       <c r="CY18" s="15" t="n">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="CZ18" s="16" t="inlineStr">
         <is>
-          <t>Continue progression while keeping form strict.</t>
+          <t>Standard – increase load for continued progression.</t>
         </is>
       </c>
       <c r="DA18" s="8" t="n"/>
@@ -3713,15 +3713,15 @@
       </c>
       <c r="DC18" s="14" t="inlineStr">
         <is>
-          <t>120kg</t>
+          <t>122.5kg</t>
         </is>
       </c>
       <c r="DD18" s="15" t="n">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="DE18" s="16" t="inlineStr">
         <is>
-          <t>Continue progression while keeping form strict.</t>
+          <t>Standard – increase load for continued progression.</t>
         </is>
       </c>
       <c r="DF18" s="8" t="n"/>
@@ -3730,15 +3730,15 @@
       </c>
       <c r="DH18" s="14" t="inlineStr">
         <is>
-          <t>120kg</t>
+          <t>122.5kg</t>
         </is>
       </c>
       <c r="DI18" s="15" t="n">
-        <v>0.59</v>
+        <v>0.6</v>
       </c>
       <c r="DJ18" s="16" t="inlineStr">
         <is>
-          <t>Paused variant.</t>
+          <t>Paused variant – focus on control.</t>
         </is>
       </c>
       <c r="DK18" s="8" t="n"/>
@@ -3747,15 +3747,15 @@
       </c>
       <c r="DM18" s="14" t="inlineStr">
         <is>
-          <t>120kg</t>
+          <t>122.5kg</t>
         </is>
       </c>
       <c r="DN18" s="15" t="n">
-        <v>0.59</v>
+        <v>0.6</v>
       </c>
       <c r="DO18" s="16" t="inlineStr">
         <is>
-          <t>Paused variant.</t>
+          <t>Paused variant – focus on control.</t>
         </is>
       </c>
       <c r="DP18" s="8" t="n"/>
@@ -3764,15 +3764,15 @@
       </c>
       <c r="DR18" s="14" t="inlineStr">
         <is>
-          <t>117.5kg</t>
+          <t>120kg</t>
         </is>
       </c>
       <c r="DS18" s="15" t="n">
-        <v>0.59</v>
+        <v>0.6</v>
       </c>
       <c r="DT18" s="16" t="inlineStr">
         <is>
-          <t>Explosive variant.</t>
+          <t>Explosive variant – emphasize power while maintaining form.</t>
         </is>
       </c>
       <c r="DU18" s="8" t="n"/>
@@ -3781,15 +3781,15 @@
       </c>
       <c r="DW18" s="14" t="inlineStr">
         <is>
-          <t>117.5kg</t>
+          <t>120kg</t>
         </is>
       </c>
       <c r="DX18" s="15" t="n">
-        <v>0.59</v>
+        <v>0.6</v>
       </c>
       <c r="DY18" s="16" t="inlineStr">
         <is>
-          <t>Explosive variant.</t>
+          <t>Explosive variant – emphasize power while maintaining form.</t>
         </is>
       </c>
       <c r="DZ18" s="7" t="n"/>
@@ -3910,7 +3910,7 @@
       <c r="CT19" s="14" t="inlineStr"/>
       <c r="CU19" s="16" t="inlineStr">
         <is>
-          <t>Maintain high volume; focus on smooth movement.</t>
+          <t>Increase load slightly while keeping rep scheme steady.</t>
         </is>
       </c>
       <c r="CV19" s="8" t="n"/>
@@ -3921,7 +3921,7 @@
       <c r="CY19" s="14" t="inlineStr"/>
       <c r="CZ19" s="16" t="inlineStr">
         <is>
-          <t>Maintain high volume; focus on smooth movement.</t>
+          <t>Increase load slightly while keeping rep scheme steady.</t>
         </is>
       </c>
       <c r="DA19" s="8" t="n"/>
@@ -4067,7 +4067,7 @@
       <c r="CT20" s="14" t="inlineStr"/>
       <c r="CU20" s="16" t="inlineStr">
         <is>
-          <t>Maintain controlled tempo.</t>
+          <t>Maintain a controlled tempo; consider a small load bump.</t>
         </is>
       </c>
       <c r="CV20" s="8" t="n"/>
@@ -4078,7 +4078,7 @@
       <c r="CY20" s="14" t="inlineStr"/>
       <c r="CZ20" s="16" t="inlineStr">
         <is>
-          <t>Maintain controlled tempo.</t>
+          <t>Maintain a controlled tempo; consider a small load bump.</t>
         </is>
       </c>
       <c r="DA20" s="8" t="n"/>
@@ -4224,7 +4224,7 @@
       <c r="CT21" s="14" t="inlineStr"/>
       <c r="CU21" s="16" t="inlineStr">
         <is>
-          <t>Emphasize slow eccentrics.</t>
+          <t>Keep execution smooth; adjust load if needed.</t>
         </is>
       </c>
       <c r="CV21" s="8" t="n"/>
@@ -4235,7 +4235,7 @@
       <c r="CY21" s="14" t="inlineStr"/>
       <c r="CZ21" s="16" t="inlineStr">
         <is>
-          <t>Emphasize slow eccentrics.</t>
+          <t>Keep execution smooth; adjust load if needed.</t>
         </is>
       </c>
       <c r="DA21" s="8" t="n"/>
@@ -4381,7 +4381,7 @@
       <c r="CT22" s="14" t="inlineStr"/>
       <c r="CU22" s="16" t="inlineStr">
         <is>
-          <t>Hold for 1–2 seconds at peak contraction.</t>
+          <t>Emphasize the hip squeeze with a consistent pace.</t>
         </is>
       </c>
       <c r="CV22" s="8" t="n"/>
@@ -4392,7 +4392,7 @@
       <c r="CY22" s="14" t="inlineStr"/>
       <c r="CZ22" s="16" t="inlineStr">
         <is>
-          <t>Hold for 1–2 seconds at peak contraction.</t>
+          <t>Emphasize the hip squeeze with a consistent pace.</t>
         </is>
       </c>
       <c r="DA22" s="8" t="n"/>
@@ -6213,11 +6213,11 @@
         </is>
       </c>
       <c r="CT36" s="15" t="n">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="CU36" s="16" t="inlineStr">
         <is>
-          <t>Continue increasing work capacity.</t>
+          <t>Increase load slightly; focus on smooth, controlled movement.</t>
         </is>
       </c>
       <c r="CV36" s="8" t="n"/>
@@ -6230,11 +6230,11 @@
         </is>
       </c>
       <c r="CY36" s="15" t="n">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="CZ36" s="16" t="inlineStr">
         <is>
-          <t>Continue increasing work capacity.</t>
+          <t>Increase load slightly; focus on smooth, controlled movement.</t>
         </is>
       </c>
       <c r="DA36" s="8" t="n"/>
@@ -6247,11 +6247,11 @@
         </is>
       </c>
       <c r="DD36" s="15" t="n">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="DE36" s="16" t="inlineStr">
         <is>
-          <t>Continue increasing work capacity.</t>
+          <t>Increase load slightly; focus on smooth, controlled movement.</t>
         </is>
       </c>
       <c r="DF36" s="8" t="n"/>
@@ -6418,11 +6418,11 @@
         </is>
       </c>
       <c r="CT37" s="15" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="CU37" s="16" t="inlineStr">
         <is>
-          <t>Increase intensity while maintaining quality.</t>
+          <t>Maintain quality reps; increase load.</t>
         </is>
       </c>
       <c r="CV37" s="8" t="n"/>
@@ -6435,11 +6435,11 @@
         </is>
       </c>
       <c r="CY37" s="15" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="CZ37" s="16" t="inlineStr">
         <is>
-          <t>Increase intensity while maintaining quality.</t>
+          <t>Maintain quality reps; increase load.</t>
         </is>
       </c>
       <c r="DA37" s="8" t="n"/>
@@ -6452,11 +6452,11 @@
         </is>
       </c>
       <c r="DD37" s="15" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="DE37" s="16" t="inlineStr">
         <is>
-          <t>Increase intensity while maintaining quality.</t>
+          <t>Maintain quality reps; increase load.</t>
         </is>
       </c>
       <c r="DF37" s="8" t="n"/>
@@ -6611,11 +6611,11 @@
         </is>
       </c>
       <c r="CT38" s="15" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="CU38" s="16" t="inlineStr">
         <is>
-          <t>Paused – focus on peak contraction.</t>
+          <t>Paused variant – really focus on the contraction.</t>
         </is>
       </c>
       <c r="CV38" s="8" t="n"/>
@@ -6628,11 +6628,11 @@
         </is>
       </c>
       <c r="CY38" s="15" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="CZ38" s="16" t="inlineStr">
         <is>
-          <t>Paused – focus on peak contraction.</t>
+          <t>Paused variant – really focus on the contraction.</t>
         </is>
       </c>
       <c r="DA38" s="8" t="n"/>
@@ -6765,15 +6765,39 @@
         </is>
       </c>
       <c r="BN39" s="8" t="n"/>
-      <c r="BO39" s="12" t="n"/>
-      <c r="BP39" s="12" t="n"/>
-      <c r="BQ39" s="12" t="n"/>
-      <c r="BR39" s="12" t="n"/>
+      <c r="BO39" s="14" t="n">
+        <v>8</v>
+      </c>
+      <c r="BP39" s="14" t="inlineStr">
+        <is>
+          <t>25.2kg</t>
+        </is>
+      </c>
+      <c r="BQ39" s="15" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="BR39" s="16" t="inlineStr">
+        <is>
+          <t>Keep volume and maintain strict form.</t>
+        </is>
+      </c>
       <c r="BS39" s="8" t="n"/>
-      <c r="BT39" s="12" t="n"/>
-      <c r="BU39" s="12" t="n"/>
-      <c r="BV39" s="12" t="n"/>
-      <c r="BW39" s="12" t="n"/>
+      <c r="BT39" s="14" t="n">
+        <v>8</v>
+      </c>
+      <c r="BU39" s="14" t="inlineStr">
+        <is>
+          <t>25.2kg</t>
+        </is>
+      </c>
+      <c r="BV39" s="15" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="BW39" s="16" t="inlineStr">
+        <is>
+          <t>Keep volume and maintain strict form.</t>
+        </is>
+      </c>
       <c r="BX39" s="8" t="n"/>
       <c r="BY39" s="12" t="n"/>
       <c r="BZ39" s="12" t="n"/>
@@ -6800,15 +6824,15 @@
       </c>
       <c r="CS39" s="14" t="inlineStr">
         <is>
-          <t>26.5kg</t>
+          <t>27kg</t>
         </is>
       </c>
       <c r="CT39" s="15" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="CU39" s="16" t="inlineStr">
         <is>
-          <t>Increase intensity slightly.</t>
+          <t>Maintain strict form under a slightly increased load.</t>
         </is>
       </c>
       <c r="CV39" s="8" t="n"/>
@@ -6817,15 +6841,15 @@
       </c>
       <c r="CX39" s="14" t="inlineStr">
         <is>
-          <t>26.5kg</t>
+          <t>27kg</t>
         </is>
       </c>
       <c r="CY39" s="15" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="CZ39" s="16" t="inlineStr">
         <is>
-          <t>Increase intensity slightly.</t>
+          <t>Maintain strict form under a slightly increased load.</t>
         </is>
       </c>
       <c r="DA39" s="8" t="n"/>
@@ -6834,32 +6858,68 @@
       </c>
       <c r="DC39" s="14" t="inlineStr">
         <is>
-          <t>26.5kg</t>
+          <t>27kg</t>
         </is>
       </c>
       <c r="DD39" s="15" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="DE39" s="16" t="inlineStr">
         <is>
-          <t>Increase intensity slightly.</t>
+          <t>Maintain strict form under a slightly increased load.</t>
         </is>
       </c>
       <c r="DF39" s="8" t="n"/>
-      <c r="DG39" s="12" t="n"/>
-      <c r="DH39" s="12" t="n"/>
-      <c r="DI39" s="12" t="n"/>
-      <c r="DJ39" s="12" t="n"/>
+      <c r="DG39" s="14" t="n">
+        <v>8</v>
+      </c>
+      <c r="DH39" s="14" t="inlineStr">
+        <is>
+          <t>27kg</t>
+        </is>
+      </c>
+      <c r="DI39" s="15" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="DJ39" s="16" t="inlineStr">
+        <is>
+          <t>Maintain strict form under a slightly increased load.</t>
+        </is>
+      </c>
       <c r="DK39" s="8" t="n"/>
-      <c r="DL39" s="12" t="n"/>
-      <c r="DM39" s="12" t="n"/>
-      <c r="DN39" s="12" t="n"/>
-      <c r="DO39" s="12" t="n"/>
+      <c r="DL39" s="14" t="n">
+        <v>8</v>
+      </c>
+      <c r="DM39" s="14" t="inlineStr">
+        <is>
+          <t>27kg</t>
+        </is>
+      </c>
+      <c r="DN39" s="15" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="DO39" s="16" t="inlineStr">
+        <is>
+          <t>Maintain strict form under a slightly increased load.</t>
+        </is>
+      </c>
       <c r="DP39" s="8" t="n"/>
-      <c r="DQ39" s="12" t="n"/>
-      <c r="DR39" s="12" t="n"/>
-      <c r="DS39" s="12" t="n"/>
-      <c r="DT39" s="12" t="n"/>
+      <c r="DQ39" s="14" t="n">
+        <v>8</v>
+      </c>
+      <c r="DR39" s="14" t="inlineStr">
+        <is>
+          <t>27kg</t>
+        </is>
+      </c>
+      <c r="DS39" s="15" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="DT39" s="16" t="inlineStr">
+        <is>
+          <t>Maintain strict form under a slightly increased load.</t>
+        </is>
+      </c>
       <c r="DU39" s="8" t="n"/>
       <c r="DV39" s="12" t="n"/>
       <c r="DW39" s="12" t="n"/>
@@ -6997,11 +7057,11 @@
         </is>
       </c>
       <c r="CT40" s="15" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="CU40" s="16" t="inlineStr">
         <is>
-          <t>Maintain full range with scapular focus.</t>
+          <t>Emphasize scapular control; adjust tension/load accordingly.</t>
         </is>
       </c>
       <c r="CV40" s="8" t="n"/>
@@ -7014,11 +7074,11 @@
         </is>
       </c>
       <c r="CY40" s="15" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="CZ40" s="16" t="inlineStr">
         <is>
-          <t>Maintain full range with scapular focus.</t>
+          <t>Emphasize scapular control; adjust tension/load accordingly.</t>
         </is>
       </c>
       <c r="DA40" s="8" t="n"/>
@@ -9051,15 +9111,15 @@
       </c>
       <c r="CS54" s="14" t="inlineStr">
         <is>
-          <t>120kg</t>
+          <t>122.5kg</t>
         </is>
       </c>
       <c r="CT54" s="15" t="n">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="CU54" s="16" t="inlineStr">
         <is>
-          <t>Consistent progression – maintain quality reps.</t>
+          <t>Repeat Tuesday’s structure for consistency.</t>
         </is>
       </c>
       <c r="CV54" s="8" t="n"/>
@@ -9068,15 +9128,15 @@
       </c>
       <c r="CX54" s="14" t="inlineStr">
         <is>
-          <t>120kg</t>
+          <t>122.5kg</t>
         </is>
       </c>
       <c r="CY54" s="15" t="n">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="CZ54" s="16" t="inlineStr">
         <is>
-          <t>Consistent progression – maintain quality reps.</t>
+          <t>Repeat Tuesday’s structure for consistency.</t>
         </is>
       </c>
       <c r="DA54" s="8" t="n"/>
@@ -9085,15 +9145,15 @@
       </c>
       <c r="DC54" s="14" t="inlineStr">
         <is>
-          <t>120kg</t>
+          <t>122.5kg</t>
         </is>
       </c>
       <c r="DD54" s="15" t="n">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="DE54" s="16" t="inlineStr">
         <is>
-          <t>Consistent progression – maintain quality reps.</t>
+          <t>Repeat Tuesday’s structure for consistency.</t>
         </is>
       </c>
       <c r="DF54" s="8" t="n"/>
@@ -9102,11 +9162,11 @@
       </c>
       <c r="DH54" s="14" t="inlineStr">
         <is>
-          <t>120kg</t>
+          <t>122.5kg</t>
         </is>
       </c>
       <c r="DI54" s="15" t="n">
-        <v>0.59</v>
+        <v>0.6</v>
       </c>
       <c r="DJ54" s="16" t="inlineStr">
         <is>
@@ -9119,11 +9179,11 @@
       </c>
       <c r="DM54" s="14" t="inlineStr">
         <is>
-          <t>120kg</t>
+          <t>122.5kg</t>
         </is>
       </c>
       <c r="DN54" s="15" t="n">
-        <v>0.59</v>
+        <v>0.6</v>
       </c>
       <c r="DO54" s="16" t="inlineStr">
         <is>
@@ -9136,11 +9196,11 @@
       </c>
       <c r="DR54" s="14" t="inlineStr">
         <is>
-          <t>117.5kg</t>
+          <t>120kg</t>
         </is>
       </c>
       <c r="DS54" s="15" t="n">
-        <v>0.59</v>
+        <v>0.6</v>
       </c>
       <c r="DT54" s="16" t="inlineStr">
         <is>
@@ -9153,11 +9213,11 @@
       </c>
       <c r="DW54" s="14" t="inlineStr">
         <is>
-          <t>117.5kg</t>
+          <t>120kg</t>
         </is>
       </c>
       <c r="DX54" s="15" t="n">
-        <v>0.59</v>
+        <v>0.6</v>
       </c>
       <c r="DY54" s="16" t="inlineStr">
         <is>
@@ -9322,7 +9382,7 @@
       <c r="CT55" s="14" t="inlineStr"/>
       <c r="CU55" s="16" t="inlineStr">
         <is>
-          <t>Keep volume steady.</t>
+          <t>Focus on full range of motion with a slight load increase.</t>
         </is>
       </c>
       <c r="CV55" s="8" t="n"/>
@@ -9333,7 +9393,7 @@
       <c r="CY55" s="14" t="inlineStr"/>
       <c r="CZ55" s="16" t="inlineStr">
         <is>
-          <t>Keep volume steady.</t>
+          <t>Focus on full range of motion with a slight load increase.</t>
         </is>
       </c>
       <c r="DA55" s="8" t="n"/>
@@ -9507,7 +9567,7 @@
       <c r="CT56" s="14" t="inlineStr"/>
       <c r="CU56" s="16" t="inlineStr">
         <is>
-          <t>Controlled pace.</t>
+          <t>Continue with controlled execution.</t>
         </is>
       </c>
       <c r="CV56" s="8" t="n"/>
@@ -9518,7 +9578,7 @@
       <c r="CY56" s="14" t="inlineStr"/>
       <c r="CZ56" s="16" t="inlineStr">
         <is>
-          <t>Controlled pace.</t>
+          <t>Continue with controlled execution.</t>
         </is>
       </c>
       <c r="DA56" s="8" t="n"/>
@@ -9704,7 +9764,7 @@
       <c r="CT57" s="14" t="inlineStr"/>
       <c r="CU57" s="16" t="inlineStr">
         <is>
-          <t>Focus on technique.</t>
+          <t>Keep form consistent; adjust load as needed.</t>
         </is>
       </c>
       <c r="CV57" s="8" t="n"/>
@@ -9715,7 +9775,7 @@
       <c r="CY57" s="14" t="inlineStr"/>
       <c r="CZ57" s="16" t="inlineStr">
         <is>
-          <t>Focus on technique.</t>
+          <t>Keep form consistent; adjust load as needed.</t>
         </is>
       </c>
       <c r="DA57" s="8" t="n"/>
@@ -9889,7 +9949,7 @@
       <c r="CT58" s="14" t="inlineStr"/>
       <c r="CU58" s="16" t="inlineStr">
         <is>
-          <t>Maintain a strong hip squeeze.</t>
+          <t>Keep emphasizing a strong hip squeeze.</t>
         </is>
       </c>
       <c r="CV58" s="8" t="n"/>
@@ -9900,7 +9960,7 @@
       <c r="CY58" s="14" t="inlineStr"/>
       <c r="CZ58" s="16" t="inlineStr">
         <is>
-          <t>Maintain a strong hip squeeze.</t>
+          <t>Keep emphasizing a strong hip squeeze.</t>
         </is>
       </c>
       <c r="DA58" s="8" t="n"/>
@@ -10584,11 +10644,11 @@
         </is>
       </c>
       <c r="CT63" s="15" t="n">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="CU63" s="16" t="inlineStr">
         <is>
-          <t>Steady progression with quality reps.</t>
+          <t>Increase load and focus on quality reps.</t>
         </is>
       </c>
       <c r="CV63" s="8" t="n"/>
@@ -10601,11 +10661,11 @@
         </is>
       </c>
       <c r="CY63" s="15" t="n">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="CZ63" s="16" t="inlineStr">
         <is>
-          <t>Steady progression with quality reps.</t>
+          <t>Increase load and focus on quality reps.</t>
         </is>
       </c>
       <c r="DA63" s="8" t="n"/>
@@ -10618,11 +10678,11 @@
         </is>
       </c>
       <c r="DD63" s="15" t="n">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="DE63" s="16" t="inlineStr">
         <is>
-          <t>Steady progression with quality reps.</t>
+          <t>Increase load and focus on quality reps.</t>
         </is>
       </c>
       <c r="DF63" s="8" t="n"/>
@@ -10789,11 +10849,11 @@
         </is>
       </c>
       <c r="CT64" s="15" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="CU64" s="16" t="inlineStr">
         <is>
-          <t>Maintain quality under increased load.</t>
+          <t>Continue with quality volume and a slight load bump.</t>
         </is>
       </c>
       <c r="CV64" s="8" t="n"/>
@@ -10806,11 +10866,11 @@
         </is>
       </c>
       <c r="CY64" s="15" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="CZ64" s="16" t="inlineStr">
         <is>
-          <t>Maintain quality under increased load.</t>
+          <t>Continue with quality volume and a slight load bump.</t>
         </is>
       </c>
       <c r="DA64" s="8" t="n"/>
@@ -10823,11 +10883,11 @@
         </is>
       </c>
       <c r="DD64" s="15" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="DE64" s="16" t="inlineStr">
         <is>
-          <t>Maintain quality under increased load.</t>
+          <t>Continue with quality volume and a slight load bump.</t>
         </is>
       </c>
       <c r="DF64" s="8" t="n"/>
@@ -10982,11 +11042,11 @@
         </is>
       </c>
       <c r="CT65" s="15" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="CU65" s="16" t="inlineStr">
         <is>
-          <t>Paused – focus on strong contraction.</t>
+          <t>Paused variant – concentrate on peak contraction.</t>
         </is>
       </c>
       <c r="CV65" s="8" t="n"/>
@@ -10999,11 +11059,11 @@
         </is>
       </c>
       <c r="CY65" s="15" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="CZ65" s="16" t="inlineStr">
         <is>
-          <t>Paused – focus on strong contraction.</t>
+          <t>Paused variant – concentrate on peak contraction.</t>
         </is>
       </c>
       <c r="DA65" s="8" t="n"/>
@@ -11136,15 +11196,39 @@
         </is>
       </c>
       <c r="BN66" s="8" t="n"/>
-      <c r="BO66" s="12" t="n"/>
-      <c r="BP66" s="12" t="n"/>
-      <c r="BQ66" s="12" t="n"/>
-      <c r="BR66" s="12" t="n"/>
+      <c r="BO66" s="14" t="n">
+        <v>8</v>
+      </c>
+      <c r="BP66" s="14" t="inlineStr">
+        <is>
+          <t>25.2kg</t>
+        </is>
+      </c>
+      <c r="BQ66" s="15" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="BR66" s="16" t="inlineStr">
+        <is>
+          <t>Keep strict form under volume stress.</t>
+        </is>
+      </c>
       <c r="BS66" s="8" t="n"/>
-      <c r="BT66" s="12" t="n"/>
-      <c r="BU66" s="12" t="n"/>
-      <c r="BV66" s="12" t="n"/>
-      <c r="BW66" s="12" t="n"/>
+      <c r="BT66" s="14" t="n">
+        <v>8</v>
+      </c>
+      <c r="BU66" s="14" t="inlineStr">
+        <is>
+          <t>25.2kg</t>
+        </is>
+      </c>
+      <c r="BV66" s="15" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="BW66" s="16" t="inlineStr">
+        <is>
+          <t>Keep strict form under volume stress.</t>
+        </is>
+      </c>
       <c r="BX66" s="8" t="n"/>
       <c r="BY66" s="12" t="n"/>
       <c r="BZ66" s="12" t="n"/>
@@ -11171,15 +11255,15 @@
       </c>
       <c r="CS66" s="14" t="inlineStr">
         <is>
-          <t>26.5kg</t>
+          <t>27kg</t>
         </is>
       </c>
       <c r="CT66" s="15" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="CU66" s="16" t="inlineStr">
         <is>
-          <t>Keep strict form.</t>
+          <t>Keep strict form; manage increased load.</t>
         </is>
       </c>
       <c r="CV66" s="8" t="n"/>
@@ -11188,15 +11272,15 @@
       </c>
       <c r="CX66" s="14" t="inlineStr">
         <is>
-          <t>26.5kg</t>
+          <t>27kg</t>
         </is>
       </c>
       <c r="CY66" s="15" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="CZ66" s="16" t="inlineStr">
         <is>
-          <t>Keep strict form.</t>
+          <t>Keep strict form; manage increased load.</t>
         </is>
       </c>
       <c r="DA66" s="8" t="n"/>
@@ -11205,32 +11289,68 @@
       </c>
       <c r="DC66" s="14" t="inlineStr">
         <is>
-          <t>26.5kg</t>
+          <t>27kg</t>
         </is>
       </c>
       <c r="DD66" s="15" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="DE66" s="16" t="inlineStr">
         <is>
-          <t>Keep strict form.</t>
+          <t>Keep strict form; manage increased load.</t>
         </is>
       </c>
       <c r="DF66" s="8" t="n"/>
-      <c r="DG66" s="12" t="n"/>
-      <c r="DH66" s="12" t="n"/>
-      <c r="DI66" s="12" t="n"/>
-      <c r="DJ66" s="12" t="n"/>
+      <c r="DG66" s="14" t="n">
+        <v>8</v>
+      </c>
+      <c r="DH66" s="14" t="inlineStr">
+        <is>
+          <t>27kg</t>
+        </is>
+      </c>
+      <c r="DI66" s="15" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="DJ66" s="16" t="inlineStr">
+        <is>
+          <t>Keep strict form; manage increased load.</t>
+        </is>
+      </c>
       <c r="DK66" s="8" t="n"/>
-      <c r="DL66" s="12" t="n"/>
-      <c r="DM66" s="12" t="n"/>
-      <c r="DN66" s="12" t="n"/>
-      <c r="DO66" s="12" t="n"/>
+      <c r="DL66" s="14" t="n">
+        <v>8</v>
+      </c>
+      <c r="DM66" s="14" t="inlineStr">
+        <is>
+          <t>27kg</t>
+        </is>
+      </c>
+      <c r="DN66" s="15" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="DO66" s="16" t="inlineStr">
+        <is>
+          <t>Keep strict form; manage increased load.</t>
+        </is>
+      </c>
       <c r="DP66" s="8" t="n"/>
-      <c r="DQ66" s="12" t="n"/>
-      <c r="DR66" s="12" t="n"/>
-      <c r="DS66" s="12" t="n"/>
-      <c r="DT66" s="12" t="n"/>
+      <c r="DQ66" s="14" t="n">
+        <v>8</v>
+      </c>
+      <c r="DR66" s="14" t="inlineStr">
+        <is>
+          <t>27kg</t>
+        </is>
+      </c>
+      <c r="DS66" s="15" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="DT66" s="16" t="inlineStr">
+        <is>
+          <t>Keep strict form; manage increased load.</t>
+        </is>
+      </c>
       <c r="DU66" s="8" t="n"/>
       <c r="DV66" s="12" t="n"/>
       <c r="DW66" s="12" t="n"/>
@@ -11368,11 +11488,11 @@
         </is>
       </c>
       <c r="CT67" s="15" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="CU67" s="16" t="inlineStr">
         <is>
-          <t>Emphasize full range and control.</t>
+          <t>Full range with emphasis on scapular control.</t>
         </is>
       </c>
       <c r="CV67" s="8" t="n"/>
@@ -11385,11 +11505,11 @@
         </is>
       </c>
       <c r="CY67" s="15" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="CZ67" s="16" t="inlineStr">
         <is>
-          <t>Emphasize full range and control.</t>
+          <t>Full range with emphasis on scapular control.</t>
         </is>
       </c>
       <c r="DA67" s="8" t="n"/>
@@ -12197,7 +12317,7 @@
         <v>57</v>
       </c>
       <c r="C3" t="n">
-        <v>6500</v>
+        <v>8100</v>
       </c>
       <c r="D3" t="n">
         <v>57</v>
@@ -12208,13 +12328,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C4" t="n">
-        <v>6825</v>
+        <v>9345</v>
       </c>
       <c r="D4" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
